--- a/제주도 여행/비행기 호텔 정보.xlsx
+++ b/제주도 여행/비행기 호텔 정보.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="이용정보" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -892,32 +890,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>